--- a/TransferCode/wslp_f29.xlsx
+++ b/TransferCode/wslp_f29.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hulloa2\OneDrive - Louisiana State University\02Courses\14CE 7410\Matlab codes\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8E7C09C-262C-4884-9652-99AF996138C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18FC6A8B-1EB0-4178-A9D8-5A659F5E0265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3A6E773C-F121-4141-BA09-71E38B5E4439}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Depth </t>
   </si>
@@ -55,7 +55,10 @@
     <t>u2</t>
   </si>
   <si>
-    <t>log</t>
+    <t>qt/pa</t>
+  </si>
+  <si>
+    <t>Rf</t>
   </si>
   <si>
     <t>geology</t>
@@ -443,7 +446,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -479,16 +482,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10">
